--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.686130385850991</v>
+        <v>108.3097613333333</v>
       </c>
       <c r="H2">
-        <v>9.686130385850991</v>
+        <v>324.929284</v>
       </c>
       <c r="I2">
-        <v>0.7914135586644111</v>
+        <v>0.9760647858278649</v>
       </c>
       <c r="J2">
-        <v>0.7914135586644111</v>
+        <v>0.9760647858278649</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>1024.606336175416</v>
+        <v>12677.0686838943</v>
       </c>
       <c r="R2">
-        <v>1024.606336175416</v>
+        <v>114093.6181550487</v>
       </c>
       <c r="S2">
-        <v>0.2408092942422304</v>
+        <v>0.316768712363761</v>
       </c>
       <c r="T2">
-        <v>0.2408092942422304</v>
+        <v>0.316768712363761</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.686130385850991</v>
+        <v>108.3097613333333</v>
       </c>
       <c r="H3">
-        <v>9.686130385850991</v>
+        <v>324.929284</v>
       </c>
       <c r="I3">
-        <v>0.7914135586644111</v>
+        <v>0.9760647858278649</v>
       </c>
       <c r="J3">
-        <v>0.7914135586644111</v>
+        <v>0.9760647858278649</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>983.0576338890422</v>
+        <v>11002.10959980442</v>
       </c>
       <c r="R3">
-        <v>983.0576338890422</v>
+        <v>99018.98639823981</v>
       </c>
       <c r="S3">
-        <v>0.2310442622284627</v>
+        <v>0.2749156116541934</v>
       </c>
       <c r="T3">
-        <v>0.2310442622284627</v>
+        <v>0.2749156116541934</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.686130385850991</v>
+        <v>108.3097613333333</v>
       </c>
       <c r="H4">
-        <v>9.686130385850991</v>
+        <v>324.929284</v>
       </c>
       <c r="I4">
-        <v>0.7914135586644111</v>
+        <v>0.9760647858278649</v>
       </c>
       <c r="J4">
-        <v>0.7914135586644111</v>
+        <v>0.9760647858278649</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>1359.678429631365</v>
+        <v>15382.88765563295</v>
       </c>
       <c r="R4">
-        <v>1359.678429631365</v>
+        <v>138445.9889006965</v>
       </c>
       <c r="S4">
-        <v>0.3195600021937179</v>
+        <v>0.3843804618099104</v>
       </c>
       <c r="T4">
-        <v>0.3195600021937179</v>
+        <v>0.3843804618099104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.08451935042748</v>
+        <v>2.160250666666667</v>
       </c>
       <c r="H5">
-        <v>2.08451935042748</v>
+        <v>6.480752000000001</v>
       </c>
       <c r="I5">
-        <v>0.1703174344665504</v>
+        <v>0.0194677245922947</v>
       </c>
       <c r="J5">
-        <v>0.1703174344665504</v>
+        <v>0.0194677245922947</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>220.5020631818196</v>
+        <v>252.8455952504587</v>
       </c>
       <c r="R5">
-        <v>220.5020631818196</v>
+        <v>2275.610357254128</v>
       </c>
       <c r="S5">
-        <v>0.05182375351295797</v>
+        <v>0.006317988458648342</v>
       </c>
       <c r="T5">
-        <v>0.05182375351295797</v>
+        <v>0.006317988458648342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.08451935042748</v>
+        <v>2.160250666666667</v>
       </c>
       <c r="H6">
-        <v>2.08451935042748</v>
+        <v>6.480752000000001</v>
       </c>
       <c r="I6">
-        <v>0.1703174344665504</v>
+        <v>0.0194677245922947</v>
       </c>
       <c r="J6">
-        <v>0.1703174344665504</v>
+        <v>0.0194677245922947</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>211.5605075294602</v>
+        <v>219.4383433693583</v>
       </c>
       <c r="R6">
-        <v>211.5605075294602</v>
+        <v>1974.945090324224</v>
       </c>
       <c r="S6">
-        <v>0.04972225401012485</v>
+        <v>0.0054832235436777</v>
       </c>
       <c r="T6">
-        <v>0.04972225401012485</v>
+        <v>0.005483223543677699</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.08451935042748</v>
+        <v>2.160250666666667</v>
       </c>
       <c r="H7">
-        <v>2.08451935042748</v>
+        <v>6.480752000000001</v>
       </c>
       <c r="I7">
-        <v>0.1703174344665504</v>
+        <v>0.0194677245922947</v>
       </c>
       <c r="J7">
-        <v>0.1703174344665504</v>
+        <v>0.0194677245922947</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>292.6117948056528</v>
+        <v>306.8134663418596</v>
       </c>
       <c r="R7">
-        <v>292.6117948056528</v>
+        <v>2761.321197076737</v>
       </c>
       <c r="S7">
-        <v>0.06877142694346761</v>
+        <v>0.007666512589968656</v>
       </c>
       <c r="T7">
-        <v>0.06877142694346761</v>
+        <v>0.007666512589968656</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.468375334504111</v>
+        <v>0.4957383333333333</v>
       </c>
       <c r="H8">
-        <v>0.468375334504111</v>
+        <v>1.487215</v>
       </c>
       <c r="I8">
-        <v>0.03826900686903833</v>
+        <v>0.004467489579840358</v>
       </c>
       <c r="J8">
-        <v>0.03826900686903833</v>
+        <v>0.004467489579840358</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>49.54510380556162</v>
+        <v>58.02347658734833</v>
       </c>
       <c r="R8">
-        <v>49.54510380556162</v>
+        <v>522.211289286135</v>
       </c>
       <c r="S8">
-        <v>0.01164439556865353</v>
+        <v>0.001449863720372064</v>
       </c>
       <c r="T8">
-        <v>0.01164439556865353</v>
+        <v>0.001449863720372064</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.468375334504111</v>
+        <v>0.4957383333333333</v>
       </c>
       <c r="H9">
-        <v>0.468375334504111</v>
+        <v>1.487215</v>
       </c>
       <c r="I9">
-        <v>0.03826900686903833</v>
+        <v>0.004467489579840358</v>
       </c>
       <c r="J9">
-        <v>0.03826900686903833</v>
+        <v>0.004467489579840358</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>47.53600558404494</v>
+        <v>50.35711840756445</v>
       </c>
       <c r="R9">
-        <v>47.53600558404494</v>
+        <v>453.21406566808</v>
       </c>
       <c r="S9">
-        <v>0.01117220492556939</v>
+        <v>0.00125830031800486</v>
       </c>
       <c r="T9">
-        <v>0.01117220492556939</v>
+        <v>0.001258300318004859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.468375334504111</v>
+        <v>0.4957383333333333</v>
       </c>
       <c r="H10">
-        <v>0.468375334504111</v>
+        <v>1.487215</v>
       </c>
       <c r="I10">
-        <v>0.03826900686903833</v>
+        <v>0.004467489579840358</v>
       </c>
       <c r="J10">
-        <v>0.03826900686903833</v>
+        <v>0.004467489579840358</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>65.74760135656219</v>
+        <v>70.40812383279112</v>
       </c>
       <c r="R10">
-        <v>65.74760135656219</v>
+        <v>633.67311449512</v>
       </c>
       <c r="S10">
-        <v>0.01545240637481541</v>
+        <v>0.001759325541463434</v>
       </c>
       <c r="T10">
-        <v>0.01545240637481541</v>
+        <v>0.001759325541463434</v>
       </c>
     </row>
   </sheetData>
